--- a/Tiempo_Analisis.xlsx
+++ b/Tiempo_Analisis.xlsx
@@ -8,13 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan29reyes/Desktop/Sorts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CD555B-DA78-594F-857A-2C7CE7231571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6354AE95-989F-B347-B109-13B7317D24DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{6AEEAE32-9151-0947-8874-EA6AB1D6648D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$5:$C$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$5:$D$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$G$5:$G$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$5:$H$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$5:$C$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$5:$D$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$5:$E$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$5:$F$9</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$5:$G$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$H$5:$H$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$5:$C$9</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$D$5:$D$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$5:$E$9</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$E$5:$E$9</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$F$5:$F$9</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$G$5:$G$9</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$H$5:$H$9</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$5:$C$9</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$5:$D$9</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$E$5:$E$9</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$5:$F$9</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$G$5:$G$9</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$H$5:$H$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$5:$F$9</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$5:$C$9</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$5:$D$9</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$E$5:$E$9</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$F$5:$F$9</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$G$5:$G$9</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$H$5:$H$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$5:$G$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$5:$H$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$5:$C$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$5:$D$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$5:$E$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$5:$F$9</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,10 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Sort</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Insert Sort</t>
   </si>
@@ -59,23 +94,26 @@
     <t>Bubble Sort</t>
   </si>
   <si>
-    <t>n Pequeño</t>
+    <t>n Mediano (5000)</t>
   </si>
   <si>
-    <t>n Mediano</t>
+    <t>n Pequeño (2000)</t>
   </si>
   <si>
-    <t>n Grande</t>
+    <t>n Grande (20000)</t>
   </si>
   <si>
-    <t>Tiempo</t>
+    <t>El BubbleSort, SelectionSort, InsertionSort tardan mucho más, dado que a grandes escalas, la cantidad de veces que tiene que buscar entre todos los elementos utilizando for. Mientras que en el Heap, Quick, Merge como se utiliza recursividad, el tiempo de ejecucion se va acortando, dado que ya tiene los valores ordenados mediante la division.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,16 +121,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,16 +181,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -127,6 +256,3535 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n Grande</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-HN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9913361072540203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0861358642578098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1497669219970703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1109352111816397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.03543925285339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1140-274F-8377-2BF698868A86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3042860031127902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3475112915038993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2980871200561496E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2485914230346596E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4935188293457003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1140-274F-8377-2BF698868A86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1413784027099602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.98612022399902E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0769100189208901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9059400558471603E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0215969085693297E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1140-274F-8377-2BF698868A86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7639112472534096E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5512895584106404E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5643787384033203E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5681934356689398E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4233064651489202E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1140-274F-8377-2BF698868A86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.8259418010711599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8526053428649902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8700869083404497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9281930923461896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8747599124908403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1140-274F-8377-2BF698868A86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.9244120121002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.952391862869201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.961760997772201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.9503099918365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.137501001358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1140-274F-8377-2BF698868A86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1553981584"/>
+        <c:axId val="1612727440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1553981584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612727440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612727440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553981584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-HN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n Mediano</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-HN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46166205406188898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.443759834561889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44058324061888998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4091744061889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43249875406188898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7632-824D-ADB1-DDA0608629B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6573181152343701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8136968612670898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7139902114868102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8262138366699201E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.50799751281738E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7632-824D-ADB1-DDA0608629B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$5:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.38769149780273E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55200958251953E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.40759944915771E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42359733581542E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46319866180419E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7632-824D-ADB1-DDA0608629B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.06551551818847E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1978855133056599E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0665168762207E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0756006240844699E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11319923400878E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7632-824D-ADB1-DDA0608629B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39678192138671797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39708590507507302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39222502708434998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39342594146728499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39402532577514598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7632-824D-ADB1-DDA0608629B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83206415176391602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.810416030883789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80639200210571205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80856304168701099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80728201866149896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7632-824D-ADB1-DDA0608629B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1553981584"/>
+        <c:axId val="1612727440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1553981584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612727440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612727440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553981584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-HN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n Pequeño</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-HN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.10584211349487301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104202113494873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10113494872999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.104130123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10128421134948699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF4F-E848-B25C-C3CB3DC37F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$5:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.02720260620117E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.22497081756591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.10268592834472E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1686086654662999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23131275177001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF4F-E848-B25C-C3CB3DC37F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$5:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.072998046875E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4151287078857396E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.94687461853027E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0489902496337804E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2086582183837804E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF4F-E848-B25C-C3CB3DC37F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$5:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5120201110839792E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0523490905761701E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8411102294921806E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8327655792236293E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3468685150146398E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EF4F-E848-B25C-C3CB3DC37F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$5:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.6385955810546806E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3341827392578097E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3583822250366197E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4274044036865207E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0536117553710896E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF4F-E848-B25C-C3CB3DC37F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$5:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17901802062988201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176013120629883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17701020629882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17612311062988201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17401802236123801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EF4F-E848-B25C-C3CB3DC37F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1553981584"/>
+        <c:axId val="1612727440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1553981584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1612727440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612727440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553981584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-HN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238672</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>183711</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28669386-DADE-E8A9-D7F7-1DD5C6612C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>821120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466396</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>192251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE984AF-721D-4C4A-8A29-73B1DEC79DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>197068</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>663465</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137509</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071490CB-1CBB-8948-98FE-557CE4C08999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,79 +4104,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4848C0-4FF8-7249-8366-70A989060F43}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6.9913361072540203</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8.3042860031127902E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.1413784027099602E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6.7639112472534096E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5.8259418010711599</v>
+      </c>
+      <c r="H5" s="6">
+        <v>12.9244120121002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.46166205406188898</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2.6573181152343701E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.38769149780273E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>2.06551551818847E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.39678192138671797</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.83206415176391602</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.10584211349487301</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1.02720260620117E-2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>6.072998046875E-3</v>
+      </c>
+      <c r="V5" s="6">
+        <v>8.5120201110839792E-3</v>
+      </c>
+      <c r="W5" s="6">
+        <v>9.6385955810546806E-2</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0.17901802062988201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7.0861358642578098</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8.3475112915038993E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.98612022399902E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6.5512895584106404E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5.8526053428649902</v>
+      </c>
+      <c r="H6" s="6">
+        <v>12.952391862869201</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.443759834561889</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2.8136968612670898E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1.55200958251953E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2.1978855133056599E-2</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.39708590507507302</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.810416030883789</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.104202113494873</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1.22497081756591E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>6.4151287078857396E-3</v>
+      </c>
+      <c r="V6" s="6">
+        <v>8.0523490905761701E-3</v>
+      </c>
+      <c r="W6" s="6">
+        <v>9.3341827392578097E-2</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0.176013120629883</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7.1497669219970703</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8.2980871200561496E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.0769100189208901E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.5643787384033203E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5.8700869083404497</v>
+      </c>
+      <c r="H7" s="6">
+        <v>13.961760997772201</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.44058324061888998</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2.7139902114868102E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1.40759944915771E-2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2.0665168762207E-2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.39222502708434998</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.80639200210571205</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.10113494872999999</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1.10268592834472E-2</v>
+      </c>
+      <c r="U7" s="6">
+        <v>5.94687461853027E-3</v>
+      </c>
+      <c r="V7" s="6">
+        <v>7.8411102294921806E-3</v>
+      </c>
+      <c r="W7" s="6">
+        <v>9.3583822250366197E-2</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.17701020629882</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.1109352111816397</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8.2485914230346596E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.9059400558471603E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6.5681934356689398E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5.9281930923461896</v>
+      </c>
+      <c r="H8" s="6">
+        <v>12.9503099918365</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.4091744061889</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2.8262138366699201E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1.42359733581542E-2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2.0756006240844699E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.39342594146728499</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.80856304168701099</v>
+      </c>
+      <c r="R8" s="3">
+        <v>4</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.104130123</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1.1686086654662999E-2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>5.0489902496337804E-3</v>
+      </c>
+      <c r="V8" s="6">
+        <v>7.8327655792236293E-3</v>
+      </c>
+      <c r="W8" s="6">
+        <v>9.4274044036865207E-2</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.17612311062988201</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7.03543925285339</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8.4935188293457003E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.0215969085693297E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6.4233064651489202E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.8747599124908403</v>
+      </c>
+      <c r="H9" s="6">
+        <v>13.137501001358</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.43249875406188898</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1.50799751281738E-3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1.46319866180419E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2.11319923400878E-2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.39402532577514598</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.80728201866149896</v>
+      </c>
+      <c r="R9" s="3">
+        <v>5</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.10128421134948699</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1.23131275177001E-2</v>
+      </c>
+      <c r="U9" s="6">
+        <v>6.2086582183837804E-3</v>
+      </c>
+      <c r="V9" s="6">
+        <v>7.3468685150146398E-3</v>
+      </c>
+      <c r="W9" s="6">
+        <v>9.0536117553710896E-2</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0.17401802236123801</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="26" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="K26:P30"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="R3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>